--- a/report/results.xlsx
+++ b/report/results.xlsx
@@ -94,8 +94,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -132,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88:L107"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2210,16 +2211,16 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>56.565531475748202</v>
+        <v>56.883384932920499</v>
       </c>
       <c r="B74">
-        <v>55.8823529411764</v>
+        <v>55.779153766769802</v>
       </c>
       <c r="C74">
-        <v>57.481940144478799</v>
+        <v>57.791537667698599</v>
       </c>
       <c r="D74">
-        <v>1.7507199999999901</v>
+        <v>2.0606399999999998</v>
       </c>
       <c r="E74">
         <v>9</v>
@@ -2233,28 +2234,28 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" s="2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="K74" s="2">
-        <v>3.0000000000000001E-6</v>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>56.565531475748202</v>
+        <v>56.883384932920499</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>56.547987616099</v>
+        <v>61.893704850361203</v>
       </c>
       <c r="B75">
-        <v>55.8823529411764</v>
+        <v>54.463364293085597</v>
       </c>
       <c r="C75">
-        <v>57.662538699690401</v>
+        <v>62.925696594427201</v>
       </c>
       <c r="D75">
-        <v>1.7407199999999901</v>
+        <v>1.6013599999999999</v>
       </c>
       <c r="E75">
         <v>9</v>
@@ -2266,30 +2267,30 @@
         <v>1E-3</v>
       </c>
       <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="K75" s="2">
-        <v>5.0000000000000004E-6</v>
+        <v>0.75</v>
+      </c>
+      <c r="I75" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K75" s="4">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="L75">
-        <v>56.547987616099</v>
+        <v>61.893704850361203</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>56.888544891640798</v>
+        <v>61.953560371517</v>
       </c>
       <c r="B76">
-        <v>55.8565531475748</v>
+        <v>55.675954592363198</v>
       </c>
       <c r="C76">
-        <v>57.481940144478799</v>
+        <v>62.951496388028801</v>
       </c>
       <c r="D76">
-        <v>1.7973599999999901</v>
+        <v>1.58351999999999</v>
       </c>
       <c r="E76">
         <v>9</v>
@@ -2301,30 +2302,30 @@
         <v>1E-3</v>
       </c>
       <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0.75</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="L76">
-        <v>56.888544891640798</v>
+        <v>61.953560371517</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>56.800825593395203</v>
+        <v>62.409700722394199</v>
       </c>
       <c r="B77">
-        <v>55.8565531475748</v>
+        <v>61.919504643962803</v>
       </c>
       <c r="C77">
-        <v>57.791537667698599</v>
+        <v>63.312693498451999</v>
       </c>
       <c r="D77">
-        <v>1.7837999999999901</v>
+        <v>1.64079999999999</v>
       </c>
       <c r="E77">
         <v>9</v>
@@ -2336,30 +2337,30 @@
         <v>1E-3</v>
       </c>
       <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="K77" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>0.75</v>
+      </c>
+      <c r="I77" s="3">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="K77" s="4">
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="L77">
-        <v>56.800825593395203</v>
+        <v>62.409700722394199</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>56.625386996903998</v>
+        <v>61.917440660474703</v>
       </c>
       <c r="B78">
-        <v>55.598555211558299</v>
+        <v>54.127966976264098</v>
       </c>
       <c r="C78">
-        <v>57.585139318885403</v>
+        <v>62.848297213622203</v>
       </c>
       <c r="D78">
-        <v>1.7494399999999899</v>
+        <v>1.63056</v>
       </c>
       <c r="E78">
         <v>9</v>
@@ -2371,30 +2372,30 @@
         <v>1E-3</v>
       </c>
       <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="K78" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>0.75</v>
+      </c>
+      <c r="I78" s="3">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="K78" s="4">
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="L78">
-        <v>56.625386996903998</v>
+        <v>61.917440660474703</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>56.7843137254902</v>
+        <v>62.276573787409703</v>
       </c>
       <c r="B79">
-        <v>55.908152734778099</v>
+        <v>61.248710010319897</v>
       </c>
       <c r="C79">
-        <v>57.894736842105203</v>
+        <v>62.874097007223902</v>
       </c>
       <c r="D79">
-        <v>1.80567999999999</v>
+        <v>1.67536</v>
       </c>
       <c r="E79">
         <v>9</v>
@@ -2406,30 +2407,30 @@
         <v>1E-3</v>
       </c>
       <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="K79" s="2">
-        <v>4.0000000000000003E-5</v>
+        <v>0.75</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L79">
-        <v>56.7843137254902</v>
+        <v>62.276573787409703</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>56.861713106295099</v>
+        <v>62.355005159958701</v>
       </c>
       <c r="B80">
-        <v>55.650154798761598</v>
+        <v>60.990712074303403</v>
       </c>
       <c r="C80">
-        <v>61.867905056759497</v>
+        <v>63.209494324045401</v>
       </c>
       <c r="D80">
-        <v>1.8506799999999901</v>
+        <v>1.8011200000000001</v>
       </c>
       <c r="E80">
         <v>9</v>
@@ -2441,30 +2442,30 @@
         <v>1E-3</v>
       </c>
       <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="K80" s="2">
-        <v>5.0000000000000002E-5</v>
+        <v>0.75</v>
+      </c>
+      <c r="I80" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K80" s="4">
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="L80">
-        <v>56.861713106295099</v>
+        <v>62.355005159958701</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>56.747162022703797</v>
+        <v>62.184726522187802</v>
       </c>
       <c r="B81">
-        <v>55.908152734778099</v>
+        <v>60.732714138286802</v>
       </c>
       <c r="C81">
-        <v>57.533539731682097</v>
+        <v>63.0030959752321</v>
       </c>
       <c r="D81">
-        <v>1.8131999999999999</v>
+        <v>1.7885599999999999</v>
       </c>
       <c r="E81">
         <v>9</v>
@@ -2476,30 +2477,30 @@
         <v>1E-3</v>
       </c>
       <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" s="2">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="K81" s="2">
-        <v>6.0000000000000002E-5</v>
+        <v>0.75</v>
+      </c>
+      <c r="I81" s="3">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="K81" s="4">
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L81">
-        <v>56.747162022703797</v>
+        <v>62.184726522187802</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>57.092879256965901</v>
+        <v>62.080495356037098</v>
       </c>
       <c r="B82">
-        <v>55.650154798761598</v>
+        <v>60.448916408668701</v>
       </c>
       <c r="C82">
-        <v>62.409700722394199</v>
+        <v>62.796697626418897</v>
       </c>
       <c r="D82">
-        <v>1.95131999999999</v>
+        <v>1.68983999999999</v>
       </c>
       <c r="E82">
         <v>9</v>
@@ -2511,30 +2512,30 @@
         <v>1E-3</v>
       </c>
       <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="K82" s="2">
-        <v>6.9999999999999994E-5</v>
+        <v>0.75</v>
+      </c>
+      <c r="I82" s="3">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K82" s="4">
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L82">
-        <v>57.092879256965901</v>
+        <v>62.080495356037098</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>56.807017543859601</v>
+        <v>62.318885448916397</v>
       </c>
       <c r="B83">
-        <v>55.624355005159899</v>
+        <v>61.635706914344603</v>
       </c>
       <c r="C83">
-        <v>57.378740970072201</v>
+        <v>63.106295149638797</v>
       </c>
       <c r="D83">
-        <v>1.8269599999999899</v>
+        <v>1.74264</v>
       </c>
       <c r="E83">
         <v>9</v>
@@ -2546,30 +2547,30 @@
         <v>1E-3</v>
       </c>
       <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="K83" s="2">
-        <v>8.0000000000000007E-5</v>
+        <v>0.75</v>
+      </c>
+      <c r="I83" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K83" s="4">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L83">
-        <v>56.807017543859601</v>
+        <v>62.318885448916397</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>56.841073271413798</v>
+        <v>62.489164086687197</v>
       </c>
       <c r="B84">
-        <v>55.779153766769802</v>
+        <v>61.455108359133099</v>
       </c>
       <c r="C84">
-        <v>57.765737874096999</v>
+        <v>63.106295149638797</v>
       </c>
       <c r="D84">
-        <v>1.8586399999999901</v>
+        <v>1.71692</v>
       </c>
       <c r="E84">
         <v>9</v>
@@ -2581,30 +2582,30 @@
         <v>1E-3</v>
       </c>
       <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="K84" s="2">
-        <v>9.0000000000000006E-5</v>
+        <v>0.75</v>
+      </c>
+      <c r="I84" s="3">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="K84" s="4">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="L84">
-        <v>56.841073271413798</v>
+        <v>62.489164086687197</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>57.504643962848199</v>
+        <v>62.1207430340557</v>
       </c>
       <c r="B85">
-        <v>56.269349845201198</v>
+        <v>60.861713106295099</v>
       </c>
       <c r="C85">
-        <v>59.545923632610901</v>
+        <v>62.899896800825502</v>
       </c>
       <c r="D85">
-        <v>3.3311999999999999</v>
+        <v>1.6099599999999901</v>
       </c>
       <c r="E85">
         <v>9</v>
@@ -2616,41 +2617,106 @@
         <v>1E-3</v>
       </c>
       <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="K85" s="2">
-        <v>1E-3</v>
+        <v>0.75</v>
+      </c>
+      <c r="I85" s="3">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="K85" s="4">
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="L85">
-        <v>57.504643962848199</v>
+        <v>62.1207430340557</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>61.855521155830701</v>
+      </c>
+      <c r="B86">
+        <v>54.102167182662498</v>
+      </c>
+      <c r="C86">
+        <v>63.209494324045401</v>
+      </c>
+      <c r="D86">
+        <v>1.5691199999999901</v>
+      </c>
+      <c r="E86">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>0.01</v>
+      </c>
+      <c r="G86">
+        <v>1E-3</v>
+      </c>
+      <c r="H86">
+        <v>0.75</v>
+      </c>
+      <c r="I86" s="3">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="K86" s="4">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="L86">
+        <v>61.855521155830701</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>11</v>
+      <c r="A87">
+        <v>61.842105263157897</v>
+      </c>
+      <c r="B87">
+        <v>54.540763673890602</v>
+      </c>
+      <c r="C87">
+        <v>63.028895768833799</v>
+      </c>
+      <c r="D87">
+        <v>1.73131999999999</v>
+      </c>
+      <c r="E87">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>0.01</v>
+      </c>
+      <c r="G87">
+        <v>1E-3</v>
+      </c>
+      <c r="H87">
+        <v>0.75</v>
+      </c>
+      <c r="I87" s="3">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="K87" s="4">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="L87">
+        <v>61.842105263157897</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>56.7616099071207</v>
+        <v>58.901960784313701</v>
       </c>
       <c r="B88">
-        <v>56.243550051599499</v>
+        <v>55.727554179566503</v>
       </c>
       <c r="C88">
-        <v>57.223942208462297</v>
+        <v>60.861713106295099</v>
       </c>
       <c r="D88">
-        <v>7.2719199999999899</v>
+        <v>1.8853199999999899</v>
       </c>
       <c r="E88">
         <v>9</v>
       </c>
-      <c r="F88" s="3">
-        <v>5.0000000000000001E-4</v>
+      <c r="F88">
+        <v>0.01</v>
       </c>
       <c r="G88">
         <v>1E-3</v>
@@ -2659,103 +2725,38 @@
         <v>0.75</v>
       </c>
       <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="K88" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1E-3</v>
       </c>
       <c r="L88">
-        <v>56.7616099071207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>56.729618163054703</v>
-      </c>
-      <c r="B89">
-        <v>56.140350877192901</v>
-      </c>
-      <c r="C89">
-        <v>57.4303405572755</v>
-      </c>
-      <c r="D89">
-        <v>5.3408799999999896</v>
-      </c>
-      <c r="E89">
-        <v>9</v>
-      </c>
-      <c r="F89" s="3">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="G89">
-        <v>1E-3</v>
-      </c>
-      <c r="H89">
-        <v>0.75</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="L89">
-        <v>56.729618163054703</v>
+        <v>58.901960784313701</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>56.8844169246645</v>
-      </c>
-      <c r="B90">
-        <v>56.062951496388003</v>
-      </c>
-      <c r="C90">
-        <v>57.817337461300298</v>
-      </c>
-      <c r="D90">
-        <v>3.8682400000000001</v>
-      </c>
-      <c r="E90">
-        <v>9</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="G90">
-        <v>1E-3</v>
-      </c>
-      <c r="H90">
-        <v>0.75</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="L90">
-        <v>56.8844169246645</v>
+      <c r="A90" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>56.9752321981424</v>
+        <v>56.7616099071207</v>
       </c>
       <c r="B91">
-        <v>55.8823529411764</v>
+        <v>56.243550051599499</v>
       </c>
       <c r="C91">
-        <v>57.817337461300298</v>
+        <v>57.223942208462297</v>
       </c>
       <c r="D91">
-        <v>2.15979999999999</v>
+        <v>7.2719199999999899</v>
       </c>
       <c r="E91">
         <v>9</v>
       </c>
-      <c r="F91" s="3">
-        <v>2E-3</v>
+      <c r="F91" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G91">
         <v>1E-3</v>
@@ -2766,31 +2767,31 @@
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="K91" s="3">
-        <v>2E-3</v>
+      <c r="K91" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="L91">
-        <v>56.9752321981424</v>
+        <v>56.7616099071207</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>56.840041279669698</v>
+        <v>56.729618163054703</v>
       </c>
       <c r="B92">
-        <v>55.5727554179566</v>
+        <v>56.140350877192901</v>
       </c>
       <c r="C92">
-        <v>58.126934984520098</v>
+        <v>57.4303405572755</v>
       </c>
       <c r="D92">
-        <v>1.5129599999999901</v>
+        <v>5.3408799999999896</v>
       </c>
       <c r="E92">
         <v>9</v>
       </c>
-      <c r="F92" s="3">
-        <v>3.0000000000000001E-3</v>
+      <c r="F92" s="2">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="G92">
         <v>1E-3</v>
@@ -2801,31 +2802,31 @@
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="K92" s="3">
-        <v>3.0000000000000001E-3</v>
+      <c r="K92" s="2">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="L92">
-        <v>56.840041279669698</v>
+        <v>56.729618163054703</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>56.478844169246599</v>
+        <v>56.8844169246645</v>
       </c>
       <c r="B93">
-        <v>55.340557275541698</v>
+        <v>56.062951496388003</v>
       </c>
       <c r="C93">
-        <v>57.843137254901897</v>
+        <v>57.817337461300298</v>
       </c>
       <c r="D93">
-        <v>1.18668</v>
+        <v>3.8682400000000001</v>
       </c>
       <c r="E93">
         <v>9</v>
       </c>
-      <c r="F93" s="3">
-        <v>4.0000000000000001E-3</v>
+      <c r="F93" s="2">
+        <v>1E-3</v>
       </c>
       <c r="G93">
         <v>1E-3</v>
@@ -2836,31 +2837,31 @@
       <c r="I93">
         <v>0</v>
       </c>
-      <c r="K93" s="3">
-        <v>4.0000000000000001E-3</v>
+      <c r="K93" s="2">
+        <v>1E-3</v>
       </c>
       <c r="L93">
-        <v>56.478844169246599</v>
+        <v>56.8844169246645</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>59.160990712074302</v>
+        <v>56.9752321981424</v>
       </c>
       <c r="B94">
-        <v>56.759545923632601</v>
+        <v>55.8823529411764</v>
       </c>
       <c r="C94">
-        <v>62.951496388028801</v>
+        <v>57.817337461300298</v>
       </c>
       <c r="D94">
-        <v>1.5183599999999999</v>
+        <v>2.15979999999999</v>
       </c>
       <c r="E94">
         <v>9</v>
       </c>
-      <c r="F94" s="3">
-        <v>5.0000000000000001E-3</v>
+      <c r="F94" s="2">
+        <v>2E-3</v>
       </c>
       <c r="G94">
         <v>1E-3</v>
@@ -2871,31 +2872,31 @@
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="K94" s="3">
-        <v>5.0000000000000001E-3</v>
+      <c r="K94" s="2">
+        <v>2E-3</v>
       </c>
       <c r="L94">
-        <v>59.160990712074302</v>
+        <v>56.9752321981424</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>57.147574819401399</v>
+        <v>56.840041279669698</v>
       </c>
       <c r="B95">
-        <v>55.082559339525197</v>
+        <v>55.5727554179566</v>
       </c>
       <c r="C95">
-        <v>62.745098039215598</v>
+        <v>58.126934984520098</v>
       </c>
       <c r="D95">
-        <v>1.0503199999999999</v>
+        <v>1.5129599999999901</v>
       </c>
       <c r="E95">
         <v>9</v>
       </c>
-      <c r="F95" s="3">
-        <v>6.0000000000000001E-3</v>
+      <c r="F95" s="2">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G95">
         <v>1E-3</v>
@@ -2906,31 +2907,31 @@
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="K95" s="3">
-        <v>6.0000000000000001E-3</v>
+      <c r="K95" s="2">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L95">
-        <v>57.147574819401399</v>
+        <v>56.840041279669698</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>58.156862745098003</v>
+        <v>56.478844169246599</v>
       </c>
       <c r="B96">
-        <v>56.5015479876161</v>
+        <v>55.340557275541698</v>
       </c>
       <c r="C96">
-        <v>62.719298245613999</v>
+        <v>57.843137254901897</v>
       </c>
       <c r="D96">
-        <v>1.0171599999999901</v>
+        <v>1.18668</v>
       </c>
       <c r="E96">
         <v>9</v>
       </c>
-      <c r="F96" s="3">
-        <v>7.0000000000000001E-3</v>
+      <c r="F96" s="2">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G96">
         <v>1E-3</v>
@@ -2941,31 +2942,31 @@
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="K96" s="3">
-        <v>7.0000000000000001E-3</v>
+      <c r="K96" s="2">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L96">
-        <v>58.156862745098003</v>
+        <v>56.478844169246599</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>61.770897832817298</v>
+        <v>59.160990712074302</v>
       </c>
       <c r="B97">
-        <v>56.965944272445803</v>
+        <v>56.759545923632601</v>
       </c>
       <c r="C97">
-        <v>62.9772961816305</v>
+        <v>62.951496388028801</v>
       </c>
       <c r="D97">
-        <v>1.4731999999999901</v>
+        <v>1.5183599999999999</v>
       </c>
       <c r="E97">
         <v>9</v>
       </c>
-      <c r="F97" s="3">
-        <v>8.0000000000000002E-3</v>
+      <c r="F97" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G97">
         <v>1E-3</v>
@@ -2976,31 +2977,31 @@
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="K97" s="3">
-        <v>8.0000000000000002E-3</v>
+      <c r="K97" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L97">
-        <v>61.770897832817298</v>
+        <v>59.160990712074302</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>62.378740970072201</v>
+        <v>57.147574819401399</v>
       </c>
       <c r="B98">
-        <v>61.248710010319897</v>
+        <v>55.082559339525197</v>
       </c>
       <c r="C98">
-        <v>63.0030959752321</v>
+        <v>62.745098039215598</v>
       </c>
       <c r="D98">
-        <v>1.4965599999999999</v>
+        <v>1.0503199999999999</v>
       </c>
       <c r="E98">
         <v>9</v>
       </c>
-      <c r="F98" s="3">
-        <v>8.9999999999999993E-3</v>
+      <c r="F98" s="2">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G98">
         <v>1E-3</v>
@@ -3011,31 +3012,31 @@
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="K98" s="3">
-        <v>8.9999999999999993E-3</v>
+      <c r="K98" s="2">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="L98">
-        <v>62.378740970072201</v>
+        <v>57.147574819401399</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>62.123839009287899</v>
+        <v>58.156862745098003</v>
       </c>
       <c r="B99">
-        <v>60.603715170278598</v>
+        <v>56.5015479876161</v>
       </c>
       <c r="C99">
-        <v>62.925696594427201</v>
+        <v>62.719298245613999</v>
       </c>
       <c r="D99">
-        <v>1.5099199999999999</v>
+        <v>1.0171599999999901</v>
       </c>
       <c r="E99">
         <v>9</v>
       </c>
-      <c r="F99" s="3">
-        <v>0.01</v>
+      <c r="F99" s="2">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G99">
         <v>1E-3</v>
@@ -3046,31 +3047,31 @@
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="K99" s="3">
-        <v>0.01</v>
+      <c r="K99" s="2">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L99">
-        <v>62.123839009287899</v>
+        <v>58.156862745098003</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>62.237358101135101</v>
+        <v>61.770897832817298</v>
       </c>
       <c r="B100">
-        <v>60.732714138286802</v>
+        <v>56.965944272445803</v>
       </c>
       <c r="C100">
-        <v>63.441692466460204</v>
+        <v>62.9772961816305</v>
       </c>
       <c r="D100">
-        <v>1.01951999999999</v>
+        <v>1.4731999999999901</v>
       </c>
       <c r="E100">
         <v>9</v>
       </c>
-      <c r="F100" s="3">
-        <v>0.02</v>
+      <c r="F100" s="2">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G100">
         <v>1E-3</v>
@@ -3081,31 +3082,31 @@
       <c r="I100">
         <v>0</v>
       </c>
-      <c r="K100" s="3">
-        <v>0.02</v>
+      <c r="K100" s="2">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L100">
-        <v>62.237358101135101</v>
+        <v>61.770897832817298</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>61.6656346749226</v>
+        <v>62.378740970072201</v>
       </c>
       <c r="B101">
-        <v>58.849329205366303</v>
+        <v>61.248710010319897</v>
       </c>
       <c r="C101">
-        <v>63.441692466460204</v>
+        <v>63.0030959752321</v>
       </c>
       <c r="D101">
-        <v>0.85668</v>
+        <v>1.4965599999999999</v>
       </c>
       <c r="E101">
         <v>9</v>
       </c>
-      <c r="F101" s="3">
-        <v>0.03</v>
+      <c r="F101" s="2">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G101">
         <v>1E-3</v>
@@ -3116,31 +3117,31 @@
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="K101" s="3">
-        <v>0.03</v>
+      <c r="K101" s="2">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="L101">
-        <v>61.6656346749226</v>
+        <v>62.378740970072201</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>61.392156862745097</v>
+        <v>62.123839009287899</v>
       </c>
       <c r="B102">
-        <v>58.797729618162997</v>
+        <v>60.603715170278598</v>
       </c>
       <c r="C102">
-        <v>63.209494324045401</v>
+        <v>62.925696594427201</v>
       </c>
       <c r="D102">
-        <v>0.83755999999999997</v>
+        <v>1.5099199999999999</v>
       </c>
       <c r="E102">
         <v>9</v>
       </c>
-      <c r="F102" s="3">
-        <v>0.04</v>
+      <c r="F102" s="2">
+        <v>0.01</v>
       </c>
       <c r="G102">
         <v>1E-3</v>
@@ -3151,31 +3152,31 @@
       <c r="I102">
         <v>0</v>
       </c>
-      <c r="K102" s="3">
-        <v>0.04</v>
+      <c r="K102" s="2">
+        <v>0.01</v>
       </c>
       <c r="L102">
-        <v>61.392156862745097</v>
+        <v>62.123839009287899</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>61.539731682146503</v>
+        <v>62.237358101135101</v>
       </c>
       <c r="B103">
-        <v>58.565531475748102</v>
+        <v>60.732714138286802</v>
       </c>
       <c r="C103">
-        <v>63.2610939112487</v>
+        <v>63.441692466460204</v>
       </c>
       <c r="D103">
-        <v>0.68691999999999998</v>
+        <v>1.01951999999999</v>
       </c>
       <c r="E103">
         <v>9</v>
       </c>
-      <c r="F103" s="3">
-        <v>0.05</v>
+      <c r="F103" s="2">
+        <v>0.02</v>
       </c>
       <c r="G103">
         <v>1E-3</v>
@@ -3186,31 +3187,31 @@
       <c r="I103">
         <v>0</v>
       </c>
-      <c r="K103" s="3">
-        <v>0.05</v>
+      <c r="K103" s="2">
+        <v>0.02</v>
       </c>
       <c r="L103">
-        <v>61.539731682146503</v>
+        <v>62.237358101135101</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>60.807017543859601</v>
+        <v>61.6656346749226</v>
       </c>
       <c r="B104">
-        <v>56.424148606811102</v>
+        <v>58.849329205366303</v>
       </c>
       <c r="C104">
-        <v>63.235294117647001</v>
+        <v>63.441692466460204</v>
       </c>
       <c r="D104">
-        <v>0.71631999999999996</v>
+        <v>0.85668</v>
       </c>
       <c r="E104">
         <v>9</v>
       </c>
-      <c r="F104" s="3">
-        <v>0.06</v>
+      <c r="F104" s="2">
+        <v>0.03</v>
       </c>
       <c r="G104">
         <v>1E-3</v>
@@ -3221,31 +3222,31 @@
       <c r="I104">
         <v>0</v>
       </c>
-      <c r="K104" s="3">
-        <v>0.06</v>
+      <c r="K104" s="2">
+        <v>0.03</v>
       </c>
       <c r="L104">
-        <v>60.807017543859601</v>
+        <v>61.6656346749226</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>60.707946336429302</v>
+        <v>61.392156862745097</v>
       </c>
       <c r="B105">
-        <v>54.385964912280699</v>
+        <v>58.797729618162997</v>
       </c>
       <c r="C105">
-        <v>62.951496388028801</v>
+        <v>63.209494324045401</v>
       </c>
       <c r="D105">
-        <v>0.79239999999999999</v>
+        <v>0.83755999999999997</v>
       </c>
       <c r="E105">
         <v>9</v>
       </c>
-      <c r="F105" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="F105" s="2">
+        <v>0.04</v>
       </c>
       <c r="G105">
         <v>1E-3</v>
@@ -3256,31 +3257,31 @@
       <c r="I105">
         <v>0</v>
       </c>
-      <c r="K105" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="K105" s="2">
+        <v>0.04</v>
       </c>
       <c r="L105">
-        <v>60.707946336429302</v>
+        <v>61.392156862745097</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>60.5025799793601</v>
+        <v>61.539731682146503</v>
       </c>
       <c r="B106">
-        <v>56.604747162022697</v>
+        <v>58.565531475748102</v>
       </c>
       <c r="C106">
-        <v>63.028895768833799</v>
+        <v>63.2610939112487</v>
       </c>
       <c r="D106">
-        <v>0.78059999999999996</v>
+        <v>0.68691999999999998</v>
       </c>
       <c r="E106">
         <v>9</v>
       </c>
-      <c r="F106" s="3">
-        <v>0.08</v>
+      <c r="F106" s="2">
+        <v>0.05</v>
       </c>
       <c r="G106">
         <v>1E-3</v>
@@ -3291,45 +3292,150 @@
       <c r="I106">
         <v>0</v>
       </c>
-      <c r="K106" s="3">
-        <v>0.08</v>
+      <c r="K106" s="2">
+        <v>0.05</v>
       </c>
       <c r="L106">
-        <v>60.5025799793601</v>
+        <v>61.539731682146503</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
+        <v>60.807017543859601</v>
+      </c>
+      <c r="B107">
+        <v>56.424148606811102</v>
+      </c>
+      <c r="C107">
+        <v>63.235294117647001</v>
+      </c>
+      <c r="D107">
+        <v>0.71631999999999996</v>
+      </c>
+      <c r="E107">
+        <v>9</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G107">
+        <v>1E-3</v>
+      </c>
+      <c r="H107">
+        <v>0.75</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="L107">
+        <v>60.807017543859601</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>60.707946336429302</v>
+      </c>
+      <c r="B108">
+        <v>54.385964912280699</v>
+      </c>
+      <c r="C108">
+        <v>62.951496388028801</v>
+      </c>
+      <c r="D108">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="E108">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G108">
+        <v>1E-3</v>
+      </c>
+      <c r="H108">
+        <v>0.75</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="K108" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L108">
+        <v>60.707946336429302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>60.5025799793601</v>
+      </c>
+      <c r="B109">
+        <v>56.604747162022697</v>
+      </c>
+      <c r="C109">
+        <v>63.028895768833799</v>
+      </c>
+      <c r="D109">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="E109">
+        <v>9</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G109">
+        <v>1E-3</v>
+      </c>
+      <c r="H109">
+        <v>0.75</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="L109">
+        <v>60.5025799793601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>60.3591331269349</v>
       </c>
-      <c r="B107">
+      <c r="B110">
         <v>56.604747162022697</v>
       </c>
-      <c r="C107">
+      <c r="C110">
         <v>62.590299277605702</v>
       </c>
-      <c r="D107">
+      <c r="D110">
         <v>0.85691999999999902</v>
       </c>
-      <c r="E107">
-        <v>9</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="E110">
+        <v>9</v>
+      </c>
+      <c r="F110" s="2">
         <v>0.09</v>
       </c>
-      <c r="G107">
-        <v>1E-3</v>
-      </c>
-      <c r="H107">
-        <v>0.75</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="K107" s="3">
+      <c r="G110">
+        <v>1E-3</v>
+      </c>
+      <c r="H110">
+        <v>0.75</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2">
         <v>0.09</v>
       </c>
-      <c r="L107">
+      <c r="L110">
         <v>60.3591331269349</v>
       </c>
     </row>
